--- a/public/Template/tmp3.xlsx
+++ b/public/Template/tmp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>数量(可不填)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t>项目编号*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -384,19 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -407,6 +412,9 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
